--- a/dictionary/dictionary.xlsx
+++ b/dictionary/dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sopheap/R project/CMML_report/CMML/dictionary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sopheap/Desktop/R/CMML/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3075CEAE-44D2-A743-9923-F08CC01B8DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D397223A-6833-9547-93AB-C297F28CD763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3480" yWindow="8040" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -814,9 +814,6 @@
     <t>Glove powder size M</t>
   </si>
   <si>
-    <t>KimCap, 13mm</t>
-  </si>
-  <si>
     <t>Crystal Violet 0.1% (In house)</t>
   </si>
   <si>
@@ -875,6 +872,9 @@
   </si>
   <si>
     <t>Liquid hand soap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KimCap, 13mm </t>
   </si>
 </sst>
 </file>
@@ -962,10 +962,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18785107-2E9F-0348-A667-C10B9D0768C9}" name="Table1" displayName="Table1" ref="A1:F152" totalsRowShown="0">
-  <autoFilter ref="A1:F152" xr:uid="{18785107-2E9F-0348-A667-C10B9D0768C9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F152">
-    <sortCondition ref="B1:B152"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18785107-2E9F-0348-A667-C10B9D0768C9}" name="Table1" displayName="Table1" ref="A1:F153" totalsRowShown="0">
+  <autoFilter ref="A1:F153" xr:uid="{18785107-2E9F-0348-A667-C10B9D0768C9}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="KimCap 13mm"/>
+        <filter val="KimCap, 13mm"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F151">
+    <sortCondition ref="B1:B151"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{681F8630-5E01-D740-A6BA-4A8F92B8B5A8}" name="product_name"/>
@@ -1258,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="190" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1294,7 +1301,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1314,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1334,7 +1341,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1354,7 +1361,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1371,7 +1378,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1391,7 +1398,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1408,7 +1415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1425,7 +1432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1442,7 +1449,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1462,7 +1469,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1479,7 +1486,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1496,7 +1503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1516,7 +1523,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1536,7 +1543,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1553,7 +1560,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1573,7 +1580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1590,7 +1597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -1607,7 +1614,7 @@
         <v>8415</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -1624,7 +1631,7 @@
         <v>7392</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1644,7 +1651,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1664,7 +1671,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1684,7 +1691,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1704,7 +1711,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1721,7 +1728,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1741,7 +1748,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1761,7 +1768,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1781,7 +1788,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1801,7 +1808,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1818,7 +1825,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1835,7 +1842,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1852,7 +1859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1869,7 +1876,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1886,12 +1893,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
@@ -1903,7 +1910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1923,12 +1930,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
@@ -1940,7 +1947,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1957,7 +1964,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>121</v>
       </c>
@@ -1974,7 +1981,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1991,7 +1998,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -2011,7 +2018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -2031,7 +2038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -2051,7 +2058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2071,7 +2078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2091,9 +2098,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B45" t="s">
         <v>173</v>
@@ -2111,7 +2118,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2128,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -2148,7 +2155,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -2168,7 +2175,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2185,7 +2192,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -2199,9 +2206,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B51" t="s">
         <v>263</v>
@@ -2213,9 +2220,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B52" t="s">
         <v>263</v>
@@ -2227,7 +2234,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
@@ -2244,7 +2251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>252</v>
       </c>
@@ -2258,9 +2265,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B55" t="s">
         <v>253</v>
@@ -2272,9 +2279,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B56" t="s">
         <v>253</v>
@@ -2286,7 +2293,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>254</v>
       </c>
@@ -2300,9 +2307,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B58" t="s">
         <v>255</v>
@@ -2314,9 +2321,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B59" t="s">
         <v>255</v>
@@ -2328,7 +2335,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
@@ -2345,7 +2352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -2362,7 +2369,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -2382,7 +2389,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -2399,7 +2406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>117</v>
       </c>
@@ -2416,7 +2423,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -2436,7 +2443,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -2456,7 +2463,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -2472,10 +2479,13 @@
       <c r="E67" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B68" t="s">
         <v>186</v>
@@ -2493,7 +2503,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -2510,7 +2520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -2530,7 +2540,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -2550,7 +2560,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>67</v>
       </c>
@@ -2570,7 +2580,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -2587,7 +2597,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>127</v>
       </c>
@@ -2604,7 +2614,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2641,35 +2651,35 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>264</v>
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="C77" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D77" t="s">
-        <v>3</v>
+        <v>240</v>
       </c>
       <c r="E77" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F77">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
         <v>196</v>
       </c>
       <c r="C78" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="D78" t="s">
         <v>240</v>
@@ -2681,15 +2691,15 @@
         <v>800</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
         <v>196</v>
       </c>
       <c r="C79" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="D79" t="s">
         <v>240</v>
@@ -2697,53 +2707,47 @@
       <c r="E79" t="s">
         <v>236</v>
       </c>
-      <c r="F79">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C80" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D80" t="s">
-        <v>240</v>
+        <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="F80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="B81" t="s">
-        <v>197</v>
-      </c>
-      <c r="C81" t="s">
-        <v>155</v>
+        <v>256</v>
       </c>
       <c r="D81" t="s">
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>233</v>
-      </c>
-      <c r="F81">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
         <v>271</v>
       </c>
       <c r="B82" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D82" t="s">
         <v>3</v>
@@ -2752,26 +2756,29 @@
         <v>257</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>272</v>
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>72</v>
       </c>
       <c r="B83" t="s">
-        <v>258</v>
+        <v>193</v>
       </c>
       <c r="D83" t="s">
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="F83">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B84" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D84" t="s">
         <v>3</v>
@@ -2783,29 +2790,32 @@
         <v>500</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>194</v>
+        <v>198</v>
+      </c>
+      <c r="C85" t="s">
+        <v>180</v>
       </c>
       <c r="D85" t="s">
-        <v>3</v>
+        <v>240</v>
       </c>
       <c r="E85" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F85">
         <v>500</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C86" t="s">
         <v>180</v>
@@ -2817,18 +2827,18 @@
         <v>236</v>
       </c>
       <c r="F86">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B87" t="s">
         <v>199</v>
       </c>
       <c r="C87" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D87" t="s">
         <v>240</v>
@@ -2836,19 +2846,16 @@
       <c r="E87" t="s">
         <v>236</v>
       </c>
-      <c r="F87">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B88" t="s">
         <v>199</v>
       </c>
       <c r="C88" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D88" t="s">
         <v>240</v>
@@ -2856,16 +2863,19 @@
       <c r="E88" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F88">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B89" t="s">
         <v>199</v>
       </c>
       <c r="C89" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D89" t="s">
         <v>240</v>
@@ -2877,12 +2887,12 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C90" t="s">
         <v>155</v>
@@ -2894,18 +2904,18 @@
         <v>236</v>
       </c>
       <c r="F90">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B91" t="s">
         <v>200</v>
       </c>
       <c r="C91" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D91" t="s">
         <v>240</v>
@@ -2917,32 +2927,29 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B92" t="s">
+        <v>282</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>235</v>
+      </c>
+      <c r="F92">
         <v>200</v>
       </c>
-      <c r="C92" t="s">
-        <v>147</v>
-      </c>
-      <c r="D92" t="s">
-        <v>240</v>
-      </c>
-      <c r="E92" t="s">
-        <v>236</v>
-      </c>
-      <c r="F92">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>283</v>
+        <v>89</v>
       </c>
       <c r="D93" t="s">
         <v>3</v>
@@ -2951,32 +2958,35 @@
         <v>235</v>
       </c>
       <c r="F93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>203</v>
+      </c>
+      <c r="C94" t="s">
+        <v>147</v>
+      </c>
+      <c r="D94" t="s">
+        <v>240</v>
+      </c>
+      <c r="E94" t="s">
+        <v>236</v>
+      </c>
+      <c r="F94">
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>89</v>
-      </c>
-      <c r="B94" t="s">
-        <v>89</v>
-      </c>
-      <c r="D94" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" t="s">
-        <v>235</v>
-      </c>
-      <c r="F94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B95" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C95" t="s">
         <v>147</v>
@@ -2987,19 +2997,16 @@
       <c r="E95" t="s">
         <v>236</v>
       </c>
-      <c r="F95">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C96" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="D96" t="s">
         <v>240</v>
@@ -3007,16 +3014,19 @@
       <c r="E96" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F96">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B97" t="s">
         <v>202</v>
       </c>
       <c r="C97" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D97" t="s">
         <v>240</v>
@@ -3024,33 +3034,30 @@
       <c r="E97" t="s">
         <v>236</v>
       </c>
-      <c r="F97">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>202</v>
-      </c>
-      <c r="C98" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="D98" t="s">
-        <v>240</v>
+        <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="F98">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B99" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="D99" t="s">
         <v>3</v>
@@ -3059,73 +3066,76 @@
         <v>235</v>
       </c>
       <c r="F99">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B100" t="s">
-        <v>190</v>
+        <v>204</v>
+      </c>
+      <c r="C100" t="s">
+        <v>170</v>
       </c>
       <c r="D100" t="s">
         <v>3</v>
       </c>
       <c r="E100" t="s">
+        <v>236</v>
+      </c>
+      <c r="F100">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>205</v>
+      </c>
+      <c r="B101" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101" t="s">
+        <v>174</v>
+      </c>
+      <c r="D101" t="s">
+        <v>46</v>
+      </c>
+      <c r="E101" t="s">
+        <v>233</v>
+      </c>
+      <c r="F101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>96</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
+      </c>
+      <c r="D102" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" t="s">
         <v>235</v>
       </c>
-      <c r="F100">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>95</v>
-      </c>
-      <c r="B101" t="s">
-        <v>204</v>
-      </c>
-      <c r="C101" t="s">
-        <v>170</v>
-      </c>
-      <c r="D101" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" t="s">
-        <v>236</v>
-      </c>
-      <c r="F101">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>205</v>
-      </c>
-      <c r="B102" t="s">
-        <v>205</v>
-      </c>
-      <c r="C102" t="s">
-        <v>174</v>
-      </c>
-      <c r="D102" t="s">
-        <v>46</v>
-      </c>
-      <c r="E102" t="s">
-        <v>233</v>
-      </c>
       <c r="F102">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B103" t="s">
         <v>206</v>
       </c>
+      <c r="C103" t="s">
+        <v>207</v>
+      </c>
       <c r="D103" t="s">
         <v>3</v>
       </c>
@@ -3136,32 +3146,29 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B104" t="s">
-        <v>206</v>
-      </c>
-      <c r="C104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D104" t="s">
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F104">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B105" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D105" t="s">
         <v>3</v>
@@ -3170,15 +3177,15 @@
         <v>234</v>
       </c>
       <c r="F105">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B106" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D106" t="s">
         <v>3</v>
@@ -3190,12 +3197,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B107" t="s">
-        <v>210</v>
+        <v>101</v>
       </c>
       <c r="D107" t="s">
         <v>3</v>
@@ -3204,32 +3211,32 @@
         <v>234</v>
       </c>
       <c r="F107">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B108" t="s">
-        <v>101</v>
+        <v>225</v>
       </c>
       <c r="D108" t="s">
         <v>3</v>
       </c>
       <c r="E108" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F108">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="B109" t="s">
-        <v>225</v>
+        <v>103</v>
       </c>
       <c r="D109" t="s">
         <v>3</v>
@@ -3238,32 +3245,29 @@
         <v>233</v>
       </c>
       <c r="F109">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>103</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="B110" t="s">
-        <v>103</v>
+        <v>260</v>
       </c>
       <c r="D110" t="s">
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>233</v>
-      </c>
-      <c r="F110">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>274</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>272</v>
       </c>
       <c r="B111" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D111" t="s">
         <v>3</v>
@@ -3272,9 +3276,9 @@
         <v>257</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B112" t="s">
         <v>259</v>
@@ -3286,125 +3290,131 @@
         <v>257</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>275</v>
+        <v>104</v>
       </c>
       <c r="B113" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="D113" t="s">
         <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="F113">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B114" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D114" t="s">
-        <v>3</v>
+        <v>240</v>
       </c>
       <c r="E114" t="s">
+        <v>236</v>
+      </c>
+      <c r="F114">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>106</v>
+      </c>
+      <c r="B115" t="s">
+        <v>214</v>
+      </c>
+      <c r="D115" t="s">
+        <v>240</v>
+      </c>
+      <c r="E115" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>102</v>
+      </c>
+      <c r="B116" t="s">
+        <v>211</v>
+      </c>
+      <c r="D116" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" t="s">
         <v>234</v>
       </c>
-      <c r="F114">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>105</v>
-      </c>
-      <c r="B115" t="s">
-        <v>213</v>
-      </c>
-      <c r="D115" t="s">
-        <v>240</v>
-      </c>
-      <c r="E115" t="s">
-        <v>236</v>
-      </c>
-      <c r="F115">
+      <c r="F116">
         <v>500</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>106</v>
-      </c>
-      <c r="B116" t="s">
-        <v>214</v>
-      </c>
-      <c r="D116" t="s">
-        <v>240</v>
-      </c>
-      <c r="E116" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B117" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D117" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="E117" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F117">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B118" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="D118" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B119" t="s">
         <v>108</v>
       </c>
+      <c r="C119" t="s">
+        <v>165</v>
+      </c>
       <c r="D119" t="s">
         <v>240</v>
       </c>
       <c r="E119" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F119">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B120" t="s">
         <v>108</v>
       </c>
       <c r="C120" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D120" t="s">
         <v>240</v>
@@ -3412,19 +3422,16 @@
       <c r="E120" t="s">
         <v>236</v>
       </c>
-      <c r="F120">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B121" t="s">
         <v>108</v>
       </c>
       <c r="C121" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D121" t="s">
         <v>240</v>
@@ -3432,16 +3439,19 @@
       <c r="E121" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F121">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B122" t="s">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="C122" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D122" t="s">
         <v>240</v>
@@ -3453,32 +3463,26 @@
         <v>250</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>112</v>
+    <row r="123" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="B123" t="s">
-        <v>216</v>
-      </c>
-      <c r="C123" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="D123" t="s">
-        <v>240</v>
+        <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>236</v>
-      </c>
-      <c r="F123">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
-        <v>277</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>275</v>
       </c>
       <c r="B124" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D124" t="s">
         <v>3</v>
@@ -3487,9 +3491,9 @@
         <v>257</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B125" t="s">
         <v>261</v>
@@ -3501,46 +3505,49 @@
         <v>257</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>278</v>
+        <v>64</v>
       </c>
       <c r="B126" t="s">
-        <v>261</v>
+        <v>283</v>
+      </c>
+      <c r="C126" t="s">
+        <v>188</v>
       </c>
       <c r="D126" t="s">
         <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="B127" t="s">
-        <v>284</v>
-      </c>
-      <c r="C127" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="D127" t="s">
-        <v>3</v>
+        <v>240</v>
       </c>
       <c r="E127" t="s">
-        <v>1</v>
+        <v>236</v>
       </c>
       <c r="F127">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B128" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D128" t="s">
         <v>240</v>
@@ -3549,35 +3556,38 @@
         <v>236</v>
       </c>
       <c r="F128">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B129" t="s">
-        <v>114</v>
+        <v>221</v>
+      </c>
+      <c r="C129" t="s">
+        <v>217</v>
       </c>
       <c r="D129" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="E129" t="s">
         <v>236</v>
       </c>
       <c r="F129">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B130" t="s">
         <v>221</v>
       </c>
       <c r="C130" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="D130" t="s">
         <v>46</v>
@@ -3585,76 +3595,73 @@
       <c r="E130" t="s">
         <v>236</v>
       </c>
-      <c r="F130">
+    </row>
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>118</v>
+      </c>
+      <c r="B131" t="s">
+        <v>218</v>
+      </c>
+      <c r="C131" t="s">
+        <v>155</v>
+      </c>
+      <c r="D131" t="s">
+        <v>240</v>
+      </c>
+      <c r="E131" t="s">
+        <v>236</v>
+      </c>
+      <c r="F131">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>119</v>
+      </c>
+      <c r="B132" t="s">
+        <v>219</v>
+      </c>
+      <c r="C132" t="s">
+        <v>220</v>
+      </c>
+      <c r="D132" t="s">
+        <v>240</v>
+      </c>
+      <c r="E132" t="s">
+        <v>236</v>
+      </c>
+      <c r="F132">
         <v>200</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>116</v>
-      </c>
-      <c r="B131" t="s">
-        <v>221</v>
-      </c>
-      <c r="C131" t="s">
-        <v>172</v>
-      </c>
-      <c r="D131" t="s">
-        <v>46</v>
-      </c>
-      <c r="E131" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>118</v>
-      </c>
-      <c r="B132" t="s">
-        <v>218</v>
-      </c>
-      <c r="C132" t="s">
-        <v>155</v>
-      </c>
-      <c r="D132" t="s">
-        <v>240</v>
-      </c>
-      <c r="E132" t="s">
-        <v>236</v>
-      </c>
-      <c r="F132">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="B133" t="s">
-        <v>219</v>
+        <v>138</v>
       </c>
       <c r="C133" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="D133" t="s">
-        <v>240</v>
+        <v>3</v>
       </c>
       <c r="E133" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F133">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="B134" t="s">
-        <v>138</v>
-      </c>
-      <c r="C134" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="D134" t="s">
         <v>3</v>
@@ -3663,32 +3670,32 @@
         <v>234</v>
       </c>
       <c r="F134">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="B135" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="D135" t="s">
         <v>3</v>
       </c>
       <c r="E135" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F135">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B136" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D136" t="s">
         <v>3</v>
@@ -3697,15 +3704,15 @@
         <v>235</v>
       </c>
       <c r="F136">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B137" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D137" t="s">
         <v>3</v>
@@ -3714,35 +3721,38 @@
         <v>235</v>
       </c>
       <c r="F137">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="B138" t="s">
-        <v>177</v>
+        <v>224</v>
+      </c>
+      <c r="C138" t="s">
+        <v>180</v>
       </c>
       <c r="D138" t="s">
-        <v>3</v>
+        <v>240</v>
       </c>
       <c r="E138" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F138">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B139" t="s">
         <v>224</v>
       </c>
       <c r="C139" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D139" t="s">
         <v>240</v>
@@ -3750,19 +3760,16 @@
       <c r="E139" t="s">
         <v>236</v>
       </c>
-      <c r="F139">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B140" t="s">
         <v>224</v>
       </c>
       <c r="C140" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D140" t="s">
         <v>240</v>
@@ -3770,108 +3777,111 @@
       <c r="E140" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F140">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B141" t="s">
-        <v>224</v>
-      </c>
-      <c r="C141" t="s">
+        <v>223</v>
+      </c>
+      <c r="D141" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141" t="s">
+        <v>237</v>
+      </c>
+      <c r="F141">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>22</v>
+      </c>
+      <c r="B142" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142" t="s">
+        <v>247</v>
+      </c>
+      <c r="D142" t="s">
+        <v>3</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>128</v>
+      </c>
+      <c r="B143" t="s">
+        <v>227</v>
+      </c>
+      <c r="C143" t="s">
+        <v>180</v>
+      </c>
+      <c r="D143" t="s">
+        <v>240</v>
+      </c>
+      <c r="E143" t="s">
+        <v>236</v>
+      </c>
+      <c r="F143">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>129</v>
+      </c>
+      <c r="B144" t="s">
+        <v>228</v>
+      </c>
+      <c r="D144" t="s">
+        <v>240</v>
+      </c>
+      <c r="E144" t="s">
+        <v>236</v>
+      </c>
+      <c r="F144">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>130</v>
+      </c>
+      <c r="B145" t="s">
+        <v>229</v>
+      </c>
+      <c r="D145" t="s">
+        <v>240</v>
+      </c>
+      <c r="E145" t="s">
+        <v>236</v>
+      </c>
+      <c r="F145">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>132</v>
+      </c>
+      <c r="B146" t="s">
+        <v>279</v>
+      </c>
+      <c r="C146" t="s">
         <v>147</v>
       </c>
-      <c r="D141" t="s">
-        <v>240</v>
-      </c>
-      <c r="E141" t="s">
-        <v>236</v>
-      </c>
-      <c r="F141">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>123</v>
-      </c>
-      <c r="B142" t="s">
-        <v>223</v>
-      </c>
-      <c r="D142" t="s">
-        <v>17</v>
-      </c>
-      <c r="E142" t="s">
-        <v>237</v>
-      </c>
-      <c r="F142">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>22</v>
-      </c>
-      <c r="B143" t="s">
-        <v>153</v>
-      </c>
-      <c r="C143" t="s">
-        <v>247</v>
-      </c>
-      <c r="D143" t="s">
-        <v>3</v>
-      </c>
-      <c r="E143" t="s">
-        <v>1</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>128</v>
-      </c>
-      <c r="B144" t="s">
-        <v>227</v>
-      </c>
-      <c r="C144" t="s">
-        <v>180</v>
-      </c>
-      <c r="D144" t="s">
-        <v>240</v>
-      </c>
-      <c r="E144" t="s">
-        <v>236</v>
-      </c>
-      <c r="F144">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>129</v>
-      </c>
-      <c r="B145" t="s">
-        <v>228</v>
-      </c>
-      <c r="D145" t="s">
-        <v>240</v>
-      </c>
-      <c r="E145" t="s">
-        <v>236</v>
-      </c>
-      <c r="F145">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>130</v>
-      </c>
-      <c r="B146" t="s">
-        <v>229</v>
-      </c>
       <c r="D146" t="s">
         <v>240</v>
       </c>
@@ -3879,32 +3889,29 @@
         <v>236</v>
       </c>
       <c r="F146">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B147" t="s">
-        <v>280</v>
-      </c>
-      <c r="C147" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="D147" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="E147" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F147">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B148" t="s">
         <v>231</v>
@@ -3919,12 +3926,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B149" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D149" t="s">
         <v>46</v>
@@ -3933,15 +3940,18 @@
         <v>233</v>
       </c>
       <c r="F149">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B150" t="s">
-        <v>230</v>
+        <v>232</v>
+      </c>
+      <c r="C150" t="s">
+        <v>155</v>
       </c>
       <c r="D150" t="s">
         <v>46</v>
@@ -3950,19 +3960,16 @@
         <v>233</v>
       </c>
       <c r="F150">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B151" t="s">
         <v>232</v>
       </c>
-      <c r="C151" t="s">
-        <v>155</v>
-      </c>
       <c r="D151" t="s">
         <v>46</v>
       </c>
@@ -3975,21 +3982,25 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>136</v>
+        <v>284</v>
       </c>
       <c r="B152" t="s">
-        <v>232</v>
+        <v>76</v>
+      </c>
+      <c r="C152" t="s">
+        <v>195</v>
       </c>
       <c r="D152" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="E152" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F152">
-        <v>3000</v>
-      </c>
-    </row>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/dictionary/dictionary.xlsx
+++ b/dictionary/dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sopheap/Desktop/R/CMML/dictionary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sopheap/Desktop/R/CMML 22.07.22/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78A1FFF-444F-0141-8EF4-59D08224FCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6403E50-1DB0-A84E-A431-11637523A2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="500" windowWidth="25240" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6460" yWindow="1360" windowWidth="25240" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="date" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="raw_material" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">customer!$A$1:$L$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">customer!$A$1:$E$44</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -27,15 +27,64 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={B592F52C-05C0-284B-98D5-ED791E67464D}</author>
+    <author>tc={67DA3FCD-E917-FB46-9871-515FAB402008}</author>
     <author>tc={7F86BA22-10AF-9C4A-9E58-23E02D56E52C}</author>
     <author>tc={2C3EBA57-8DAE-4E4D-AAED-7776BE065C03}</author>
+    <author>tc={329EF949-8A03-A942-ADE0-2F4E094E1596}</author>
     <author>tc={1D3AD706-6AD2-7A4F-9474-1BAC23CE7DE7}</author>
-    <author>tc={67DA3FCD-E917-FB46-9871-515FAB402008}</author>
     <author>tc={00A974C6-C054-F242-8753-2846EDFB7D99}</author>
+    <author>tc={B592F52C-05C0-284B-98D5-ED791E67464D}</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    who pays for this? the university? then call Private lab (purchased)</t>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Supplier (purchased)</t>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Supplier (purchased)</t>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="3" shapeId="0" xr:uid="{329EF949-8A03-A942-ADE0-2F4E094E1596}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Supplier (purchased)</t>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    make a new group ‘Supplier (purchased)</t>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Government lab supported by project</t>
+      </text>
+    </comment>
+    <comment ref="C35" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -43,52 +92,12 @@
     Private lab (purchased)</t>
       </text>
     </comment>
-    <comment ref="C9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Supplier (purchased)</t>
-      </text>
-    </comment>
-    <comment ref="C16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Supplier (purchased)</t>
-      </text>
-    </comment>
-    <comment ref="C28" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    make a new group ‘Supplier (purchased)</t>
-      </text>
-    </comment>
-    <comment ref="C31" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    who pays for this? the university? then call Private lab (purchased)</t>
-      </text>
-    </comment>
-    <comment ref="C34" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Government lab supported by project</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="200">
   <si>
     <t>Siem Reap</t>
   </si>
@@ -658,24 +667,46 @@
   </si>
   <si>
     <t>CLED agar</t>
+  </si>
+  <si>
+    <t>NIPH -AMR project</t>
+  </si>
+  <si>
+    <t>NIPHL- Clean front line project</t>
+  </si>
+  <si>
+    <t>NCHARDS</t>
+  </si>
+  <si>
+    <t>Preahketh Mealea</t>
+  </si>
+  <si>
+    <t>University of Health Sciences</t>
+  </si>
+  <si>
+    <t>International Standard Premium</t>
+  </si>
+  <si>
+    <t>Calmette</t>
+  </si>
+  <si>
+    <t>NPHL-clean front line</t>
+  </si>
+  <si>
+    <t>Preah Ket Melea</t>
+  </si>
+  <si>
+    <t>Cammed Laboratory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -688,6 +719,12 @@
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -708,37 +745,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1055,23 +1081,26 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C6" dT="2021-10-19T05:36:32.69" personId="{CD15A1C1-A2E6-F94B-8506-98B016177EB0}" id="{B592F52C-05C0-284B-98D5-ED791E67464D}">
-    <text>Private lab (purchased)</text>
+  <threadedComment ref="C4" dT="2021-10-19T05:39:40.39" personId="{CD15A1C1-A2E6-F94B-8506-98B016177EB0}" id="{67DA3FCD-E917-FB46-9871-515FAB402008}">
+    <text>who pays for this? the university? then call Private lab (purchased)</text>
   </threadedComment>
-  <threadedComment ref="C9" dT="2021-10-19T05:37:17.85" personId="{CD15A1C1-A2E6-F94B-8506-98B016177EB0}" id="{7F86BA22-10AF-9C4A-9E58-23E02D56E52C}">
+  <threadedComment ref="C6" dT="2021-10-19T05:37:17.85" personId="{CD15A1C1-A2E6-F94B-8506-98B016177EB0}" id="{7F86BA22-10AF-9C4A-9E58-23E02D56E52C}">
     <text>Supplier (purchased)</text>
   </threadedComment>
-  <threadedComment ref="C16" dT="2021-10-19T05:40:52.14" personId="{CD15A1C1-A2E6-F94B-8506-98B016177EB0}" id="{2C3EBA57-8DAE-4E4D-AAED-7776BE065C03}">
+  <threadedComment ref="C7" dT="2021-10-19T05:40:52.14" personId="{CD15A1C1-A2E6-F94B-8506-98B016177EB0}" id="{2C3EBA57-8DAE-4E4D-AAED-7776BE065C03}">
     <text>Supplier (purchased)</text>
   </threadedComment>
-  <threadedComment ref="C28" dT="2021-10-19T05:40:14.17" personId="{CD15A1C1-A2E6-F94B-8506-98B016177EB0}" id="{1D3AD706-6AD2-7A4F-9474-1BAC23CE7DE7}">
+  <threadedComment ref="C9" dT="2021-10-19T05:37:17.85" personId="{CD15A1C1-A2E6-F94B-8506-98B016177EB0}" id="{329EF949-8A03-A942-ADE0-2F4E094E1596}">
+    <text>Supplier (purchased)</text>
+  </threadedComment>
+  <threadedComment ref="C13" dT="2021-10-19T05:40:14.17" personId="{CD15A1C1-A2E6-F94B-8506-98B016177EB0}" id="{1D3AD706-6AD2-7A4F-9474-1BAC23CE7DE7}">
     <text>make a new group ‘Supplier (purchased)</text>
   </threadedComment>
-  <threadedComment ref="C31" dT="2021-10-19T05:39:40.39" personId="{CD15A1C1-A2E6-F94B-8506-98B016177EB0}" id="{67DA3FCD-E917-FB46-9871-515FAB402008}">
-    <text>who pays for this? the university? then call Private lab (purchased)</text>
+  <threadedComment ref="C14" dT="2021-10-19T05:38:23.16" personId="{CD15A1C1-A2E6-F94B-8506-98B016177EB0}" id="{00A974C6-C054-F242-8753-2846EDFB7D99}">
+    <text>Government lab supported by project</text>
   </threadedComment>
-  <threadedComment ref="C34" dT="2021-10-19T05:38:23.16" personId="{CD15A1C1-A2E6-F94B-8506-98B016177EB0}" id="{00A974C6-C054-F242-8753-2846EDFB7D99}">
-    <text>Government lab supported by project</text>
+  <threadedComment ref="C35" dT="2021-10-19T05:36:32.69" personId="{CD15A1C1-A2E6-F94B-8506-98B016177EB0}" id="{B592F52C-05C0-284B-98D5-ED791E67464D}">
+    <text>Private lab (purchased)</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1080,7 +1109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D119BE9-5AED-BE41-9DFF-7BB26063DF8D}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1094,7 +1123,7 @@
       <c r="A1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1102,7 +1131,7 @@
       <c r="A2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="5">
         <v>44562</v>
       </c>
     </row>
@@ -1110,7 +1139,7 @@
       <c r="A3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>44926</v>
       </c>
     </row>
@@ -1118,7 +1147,7 @@
       <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>44562</v>
       </c>
     </row>
@@ -1126,7 +1155,7 @@
       <c r="A5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>44926</v>
       </c>
     </row>
@@ -1137,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1148,13 +1177,11 @@
     <col min="1" max="1" width="41.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1164,703 +1191,714 @@
       <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3">
-        <v>103.85565</v>
+        <v>58</v>
+      </c>
+      <c r="D2" s="2">
+        <v>103.201818</v>
       </c>
       <c r="E2">
-        <v>13.356225</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>13.108544999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="3">
-        <v>104.93112600000001</v>
+      <c r="D3" s="2">
+        <v>104.91499399999999</v>
       </c>
       <c r="E3">
-        <v>11.581199</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11.565066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="3">
-        <v>104.906479</v>
+        <v>42</v>
+      </c>
+      <c r="D4" s="2">
+        <v>104.901325</v>
       </c>
       <c r="E4">
-        <v>11.543972</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11.61586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="3">
-        <v>104.890378</v>
+        <v>57</v>
+      </c>
+      <c r="D5" s="2">
+        <v>103.201818</v>
       </c>
       <c r="E5">
-        <v>11.564009</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>13.108544999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="3">
-        <v>104.924514</v>
+      <c r="D6" s="2">
+        <v>104.903887</v>
       </c>
       <c r="E6">
-        <v>11.559301</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11.584424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="2">
+        <v>104.881167</v>
+      </c>
+      <c r="E7">
+        <v>11.588566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="3">
-        <v>104.90398399999999</v>
-      </c>
-      <c r="E7">
-        <v>11.545287999999999</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="3">
-        <v>104.782827</v>
+      <c r="D8" s="2">
+        <v>104.91627800000001</v>
       </c>
       <c r="E8">
-        <v>10.989476</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11.581321000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="3">
-        <v>104.903887</v>
-      </c>
-      <c r="E9">
-        <v>11.584424</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="3">
-        <v>104.89872200000001</v>
+        <v>42</v>
+      </c>
+      <c r="D10" s="2">
+        <v>104.922612</v>
       </c>
       <c r="E10">
-        <v>11.575635999999999</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11.566869000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2">
+        <v>104.906479</v>
+      </c>
+      <c r="E11">
+        <v>11.543972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2">
+        <v>104.923551</v>
+      </c>
+      <c r="E12">
+        <v>11.553387000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2">
+        <v>104.922798</v>
+      </c>
+      <c r="E13">
+        <v>11.539913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="3">
-        <v>104.89872200000001</v>
-      </c>
-      <c r="E11">
-        <v>11.575635999999999</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="3">
-        <v>104.89872200000001</v>
-      </c>
-      <c r="E12">
-        <v>11.575635999999999</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="3">
-        <v>103.201818</v>
-      </c>
-      <c r="E13">
-        <v>13.108544999999999</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="D14" s="2">
+        <v>104.917811</v>
+      </c>
+      <c r="E14">
+        <v>11.580489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2">
+        <v>104.926276</v>
+      </c>
+      <c r="E15">
+        <v>11.572371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D16" s="2">
         <v>104.916698</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>11.580415</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="3"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="3">
-        <v>104.899123</v>
-      </c>
-      <c r="E15">
-        <v>11.576575</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="3"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="3">
-        <v>104.881167</v>
-      </c>
-      <c r="E16">
-        <v>11.588566</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="3"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="3">
-        <v>104.89724099999999</v>
+        <v>42</v>
+      </c>
+      <c r="D17" s="2">
+        <v>104.898168</v>
       </c>
       <c r="E17">
-        <v>11.569213</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="3"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>10</v>
+        <v>11.589746999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="3">
-        <v>104.91499399999999</v>
+      <c r="D18" s="2">
+        <v>104.898168</v>
       </c>
       <c r="E18">
-        <v>11.565066</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="3"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11.589746999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="3">
-        <v>104.898168</v>
+        <v>57</v>
+      </c>
+      <c r="D19" s="2">
+        <v>105.459999</v>
       </c>
       <c r="E19">
-        <v>11.589746999999999</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="3"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11.993404999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2">
+        <v>104.90398399999999</v>
+      </c>
+      <c r="E20">
+        <v>11.545287999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="2">
+        <v>104.890378</v>
+      </c>
+      <c r="E21">
+        <v>11.564009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="2">
+        <v>104.89724099999999</v>
+      </c>
+      <c r="E22">
+        <v>11.569213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="2">
+        <v>104.89872200000001</v>
+      </c>
+      <c r="E23">
+        <v>11.575635999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="2">
+        <v>104.89872200000001</v>
+      </c>
+      <c r="E24">
+        <v>11.575635999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="3">
-        <v>105.459999</v>
-      </c>
-      <c r="E20">
-        <v>11.993404999999999</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="3"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="3">
-        <v>104.926411</v>
-      </c>
-      <c r="E21">
-        <v>11.56738</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="3"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="3">
-        <v>104.892213</v>
-      </c>
-      <c r="E22">
-        <v>11.571637000000001</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="3"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="3">
-        <v>104.921887</v>
-      </c>
-      <c r="E23">
-        <v>11.562904</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="3"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="3">
-        <v>104.923551</v>
-      </c>
-      <c r="E24">
-        <v>11.553387000000001</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="3"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="3">
-        <v>105.802159</v>
+      <c r="D25" s="2">
+        <v>104.89872200000001</v>
       </c>
       <c r="E25">
-        <v>11.086333</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="3"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11.575635999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="3">
-        <v>104.132008743602</v>
+        <v>58</v>
+      </c>
+      <c r="D26" s="2">
+        <v>104.923569</v>
       </c>
       <c r="E26">
-        <v>10.570141163026801</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="3"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11.621682</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="3">
-        <v>104.922612</v>
+      <c r="D27" s="2">
+        <v>104.880652</v>
       </c>
       <c r="E27">
-        <v>11.566869000000001</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="3"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11.562443999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="3">
-        <v>104.922798</v>
+        <v>58</v>
+      </c>
+      <c r="D28" s="2">
+        <v>104.89872200000001</v>
       </c>
       <c r="E28">
-        <v>11.539913</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="3"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+        <v>11.575635999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>25</v>
+        <v>191</v>
+      </c>
+      <c r="B29" t="s">
+        <v>197</v>
       </c>
       <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="2">
+        <v>104.89872200000001</v>
+      </c>
+      <c r="E29">
+        <v>11.575635999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="3">
-        <v>104.880652</v>
-      </c>
-      <c r="E29">
-        <v>11.562443999999999</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="3"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="3">
-        <v>103.201818</v>
+      <c r="D30" s="2">
+        <v>104.914193</v>
       </c>
       <c r="E30">
-        <v>13.108544999999999</v>
-      </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="3"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>18</v>
+        <v>11.561216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="3">
-        <v>104.901325</v>
+        <v>41</v>
+      </c>
+      <c r="D31" s="2">
+        <v>104.922693</v>
       </c>
       <c r="E31">
-        <v>11.61586</v>
-      </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="3"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11.580344999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="3">
-        <v>104.914193</v>
+      <c r="D32" s="2">
+        <v>104.921887</v>
       </c>
       <c r="E32">
-        <v>11.561216</v>
-      </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="3"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
+        <v>11.562904</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="3">
-        <v>104.926276</v>
+      <c r="D33" s="2">
+        <v>104.926411</v>
       </c>
       <c r="E33">
-        <v>11.572371</v>
+        <v>11.56738</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="2">
+        <v>103.85565</v>
+      </c>
+      <c r="E34">
+        <v>13.356225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="2">
+        <v>104.924514</v>
+      </c>
+      <c r="E35">
+        <v>11.559301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="2">
+        <v>104.132008743602</v>
+      </c>
+      <c r="E36">
+        <v>10.570141163026801</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="2">
+        <v>104.93112600000001</v>
+      </c>
+      <c r="E37">
+        <v>11.581199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="2">
+        <v>105.802159</v>
+      </c>
+      <c r="E38">
+        <v>11.086333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="2">
+        <v>104.782827</v>
+      </c>
+      <c r="E39">
+        <v>10.989476</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="2">
+        <v>104.906479</v>
+      </c>
+      <c r="E40">
+        <v>11.543972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="2">
+        <v>104.892213</v>
+      </c>
+      <c r="E41">
+        <v>11.571637000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="3">
-        <v>104.917811</v>
-      </c>
-      <c r="E34">
-        <v>11.580489</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="D37" s="7"/>
+      <c r="D42" s="2">
+        <v>104.899123</v>
+      </c>
+      <c r="E42">
+        <v>11.576575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D44" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L37" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E44" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E44">
+      <sortCondition ref="A1:A44"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <legacyDrawing r:id="rId1"/>

--- a/dictionary/dictionary.xlsx
+++ b/dictionary/dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sopheap/Desktop/R/CMML 22.07.22/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6403E50-1DB0-A84E-A431-11637523A2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF786303-B037-CA47-B2CE-2732D2475B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="1360" windowWidth="25240" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="date" sheetId="2" r:id="rId1"/>
@@ -704,9 +704,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mmm/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -719,12 +719,6 @@
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -760,7 +754,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -790,7 +784,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69ABD526-DEF8-2443-B3F3-44496F4B3624}" name="Table3" displayName="Table3" ref="A1:D114" totalsRowShown="0">
   <autoFilter ref="A1:D114" xr:uid="{69ABD526-DEF8-2443-B3F3-44496F4B3624}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D114">
-    <sortCondition ref="B1:B114"/>
+    <sortCondition ref="A1:A114"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{416B3CF8-A738-9149-BE9F-C03D9BC24261}" name="name"/>
@@ -1168,7 +1162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
@@ -1618,7 +1612,7 @@
         <v>11.621682</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1652,7 +1646,7 @@
         <v>11.575635999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -1686,7 +1680,7 @@
         <v>11.561216</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>193</v>
       </c>
@@ -1771,7 +1765,7 @@
         <v>11.559301</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -1909,8 +1903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F89AEF-A6EC-4C4D-9139-9BBE0D706C44}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScale="142" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="142" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1936,119 +1930,116 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
@@ -2057,40 +2048,40 @@
         <v>62</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D11">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12">
-        <v>1200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
         <v>61</v>
@@ -2099,54 +2090,54 @@
         <v>68</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
         <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D15">
-        <v>1000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
         <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16">
-        <v>10000</v>
+        <v>8415</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
         <v>61</v>
@@ -2155,26 +2146,26 @@
         <v>62</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>7392</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D18">
-        <v>500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
         <v>61</v>
@@ -2183,133 +2174,133 @@
         <v>68</v>
       </c>
       <c r="D19">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D21">
-        <v>8415</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
         <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D22">
-        <v>7392</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
         <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
         <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D24">
-        <v>16000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D25">
-        <v>250</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D26">
-        <v>250</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D27">
-        <v>250</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2328,63 +2319,63 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D30">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="D31">
-        <v>400</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D33">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
         <v>61</v>
@@ -2392,10 +2383,13 @@
       <c r="C34" t="s">
         <v>68</v>
       </c>
+      <c r="D34">
+        <v>400</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
         <v>61</v>
@@ -2404,481 +2398,499 @@
         <v>68</v>
       </c>
       <c r="D35">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D36">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D37">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D40">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
         <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42">
-        <v>16000</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s">
         <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D43">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
         <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>68</v>
+      </c>
+      <c r="D44">
+        <v>1000</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s">
         <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>68</v>
+      </c>
+      <c r="D45">
+        <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s">
         <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="D47">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D48">
-        <v>500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s">
         <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D50">
-        <v>200</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B51" t="s">
         <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B52" t="s">
         <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D52">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B53" t="s">
         <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="D53">
+        <v>16000</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D54">
-        <v>60000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B55" t="s">
         <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D55">
-        <v>500</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="D56">
-        <v>200</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B57" t="s">
         <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="D57">
-        <v>200</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B58" t="s">
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D58">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B59" t="s">
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>500</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D60">
-        <v>120</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>126</v>
+        <v>72</v>
+      </c>
+      <c r="D61">
+        <v>500</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>72</v>
+      </c>
+      <c r="D62">
+        <v>10000</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>72</v>
+      </c>
+      <c r="D63">
+        <v>6000</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B64" t="s">
         <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D64">
-        <v>12000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D65">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>126</v>
+        <v>72</v>
+      </c>
+      <c r="D66">
+        <v>12000</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="B67" t="s">
         <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D67">
-        <v>9</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="B68" t="s">
         <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D68">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="B69" t="s">
         <v>61</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D69">
-        <v>500</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="B71" t="s">
         <v>61</v>
@@ -2886,13 +2898,10 @@
       <c r="C71" t="s">
         <v>68</v>
       </c>
-      <c r="D71">
-        <v>200</v>
-      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="B72" t="s">
         <v>61</v>
@@ -2901,32 +2910,32 @@
         <v>68</v>
       </c>
       <c r="D72">
-        <v>200</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B73" t="s">
         <v>61</v>
       </c>
       <c r="C73" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D73">
-        <v>20</v>
+        <v>500</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
         <v>61</v>
       </c>
       <c r="C74" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D74">
         <v>200</v>
@@ -2934,124 +2943,127 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="B75" t="s">
         <v>61</v>
       </c>
       <c r="C75" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="D75">
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="B76" t="s">
         <v>61</v>
       </c>
       <c r="C76" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="D76">
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="B77" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C77" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="D77">
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="B78" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C78" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D78">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="B79" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C79" t="s">
-        <v>72</v>
-      </c>
-      <c r="D79">
-        <v>1000</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="B80" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="C80" t="s">
-        <v>72</v>
-      </c>
-      <c r="D80">
-        <v>19000</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C81" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="D81">
-        <v>250</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C82" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="D82">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="B83" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C83" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D83">
-        <v>3000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="B84" t="s">
         <v>71</v>
@@ -3060,12 +3072,12 @@
         <v>72</v>
       </c>
       <c r="D84">
-        <v>1500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="B85" t="s">
         <v>71</v>
@@ -3073,19 +3085,16 @@
       <c r="C85" t="s">
         <v>72</v>
       </c>
-      <c r="D85">
-        <v>800</v>
-      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="B86" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C86" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D86">
         <v>500</v>
@@ -3093,35 +3102,32 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="B87" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="C87" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D87">
-        <v>10000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="B88" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="C88" t="s">
-        <v>72</v>
-      </c>
-      <c r="D88">
-        <v>6000</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="B89" t="s">
         <v>71</v>
@@ -3130,12 +3136,12 @@
         <v>72</v>
       </c>
       <c r="D89">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B90" t="s">
         <v>71</v>
@@ -3144,60 +3150,60 @@
         <v>72</v>
       </c>
       <c r="D90">
-        <v>12000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B91" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C91" t="s">
-        <v>72</v>
-      </c>
-      <c r="D91">
-        <v>500</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B92" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C92" t="s">
         <v>72</v>
       </c>
+      <c r="D92">
+        <v>9</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B93" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C93" t="s">
         <v>72</v>
       </c>
       <c r="D93">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B94" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="C94" t="s">
         <v>72</v>
       </c>
       <c r="D94">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -3230,41 +3236,41 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B97" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C97" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D97">
-        <v>1500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B98" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C98" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D98">
-        <v>13000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B99" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C99" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D99">
         <v>200</v>
@@ -3272,141 +3278,144 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B100" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C100" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D100">
-        <v>960</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B101" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C101" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D101">
-        <v>250</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="B102" t="s">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="C102" t="s">
         <v>68</v>
       </c>
+      <c r="D102">
+        <v>200</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B103" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="C103" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="D103">
+        <v>1500</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C104" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="C105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D105">
-        <v>3500</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C106" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D106">
-        <v>50</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C107" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="B108" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C108" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D108">
-        <v>1000</v>
+        <v>960</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="B109" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C109" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D109">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="B110" t="s">
         <v>105</v>
@@ -3414,24 +3423,27 @@
       <c r="C110" t="s">
         <v>66</v>
       </c>
+      <c r="D110">
+        <v>400</v>
+      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="B111" t="s">
         <v>105</v>
       </c>
       <c r="C111" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D111">
-        <v>200</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B112" t="s">
         <v>105</v>
@@ -3440,35 +3452,29 @@
         <v>66</v>
       </c>
       <c r="D112">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B113" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="C113" t="s">
-        <v>66</v>
-      </c>
-      <c r="D113">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B114" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="C114" t="s">
-        <v>66</v>
-      </c>
-      <c r="D114">
-        <v>3000</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/dictionary/dictionary.xlsx
+++ b/dictionary/dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sopheap/Desktop/R/CMML 22.07.22/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF786303-B037-CA47-B2CE-2732D2475B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E1DC62-59DE-C543-91AA-51BB1225B9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="date" sheetId="2" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="201">
   <si>
     <t>Siem Reap</t>
   </si>
@@ -234,12 +234,6 @@
     <t>Pro Laboratory</t>
   </si>
   <si>
-    <t>Diagnostic  Detection Laboratory</t>
-  </si>
-  <si>
-    <t>Sonya Kill Memorial Hospital</t>
-  </si>
-  <si>
     <t>National Public Health Laboratory - EGASP</t>
   </si>
   <si>
@@ -672,9 +666,6 @@
     <t>NIPH -AMR project</t>
   </si>
   <si>
-    <t>NIPHL- Clean front line project</t>
-  </si>
-  <si>
     <t>NCHARDS</t>
   </si>
   <si>
@@ -697,6 +688,18 @@
   </si>
   <si>
     <t>Cammed Laboratory</t>
+  </si>
+  <si>
+    <t>Sonja Kill Memorial Hospital</t>
+  </si>
+  <si>
+    <t>Diagnostic and Detection Laboratory</t>
+  </si>
+  <si>
+    <t>NIPHL- Clean front line project</t>
+  </si>
+  <si>
+    <t>Fondation Merieux</t>
   </si>
 </sst>
 </file>
@@ -706,7 +709,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -719,6 +722,12 @@
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -742,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -756,6 +765,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1115,15 +1128,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="5">
         <v>44562</v>
@@ -1131,7 +1144,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="5">
         <v>44926</v>
@@ -1139,7 +1152,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="5">
         <v>44562</v>
@@ -1147,7 +1160,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5">
         <v>44926</v>
@@ -1162,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:E9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1180,7 +1193,7 @@
         <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
         <v>40</v>
@@ -1200,7 +1213,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2">
         <v>103.201818</v>
@@ -1209,8 +1222,8 @@
         <v>13.108544999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
@@ -1251,7 +1264,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2">
         <v>103.201818</v>
@@ -1285,7 +1298,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2">
         <v>104.881167</v>
@@ -1296,10 +1309,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C8" t="s">
         <v>41</v>
@@ -1313,10 +1326,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
@@ -1348,7 +1361,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" s="2">
         <v>104.906479</v>
@@ -1359,7 +1372,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1382,7 +1395,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2">
         <v>104.922798</v>
@@ -1392,14 +1405,14 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>43</v>
+      <c r="A14" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2">
         <v>104.917811</v>
@@ -1461,7 +1474,7 @@
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -1484,7 +1497,7 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2">
         <v>105.459999</v>
@@ -1552,7 +1565,7 @@
         <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D23" s="2">
         <v>104.89872200000001</v>
@@ -1563,13 +1576,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D24" s="2">
         <v>104.89872200000001</v>
@@ -1586,7 +1599,7 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" s="2">
         <v>104.89872200000001</v>
@@ -1597,13 +1610,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" s="2">
         <v>104.923569</v>
@@ -1631,13 +1644,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D28" s="2">
         <v>104.89872200000001</v>
@@ -1647,14 +1660,14 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>191</v>
+      <c r="A29" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="B29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D29" s="2">
         <v>104.89872200000001</v>
@@ -1682,10 +1695,10 @@
     </row>
     <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
@@ -1739,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D34" s="2">
         <v>103.85565</v>
@@ -1767,7 +1780,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>197</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
@@ -1824,7 +1837,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D39" s="2">
         <v>104.782827</v>
@@ -1835,13 +1848,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B40" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D40" s="2">
         <v>104.906479</v>
@@ -1875,7 +1888,7 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D42" s="2">
         <v>104.899123</v>
@@ -1903,7 +1916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F89AEF-A6EC-4C4D-9139-9BBE0D706C44}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="142" workbookViewId="0">
+    <sheetView topLeftCell="A60" zoomScale="142" workbookViewId="0">
       <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
@@ -1916,27 +1929,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
         <v>184</v>
-      </c>
-      <c r="B1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
         <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1944,13 +1957,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -1958,13 +1971,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>1200</v>
@@ -1972,13 +1985,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -1986,13 +1999,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -2000,24 +2013,24 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
         <v>70</v>
-      </c>
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>1000</v>
@@ -2025,13 +2038,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9">
         <v>10000</v>
@@ -2039,13 +2052,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -2053,13 +2066,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11">
         <v>150</v>
@@ -2067,13 +2080,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12">
         <v>500</v>
@@ -2081,13 +2094,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D13">
         <v>500</v>
@@ -2095,13 +2108,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
         <v>79</v>
-      </c>
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>81</v>
       </c>
       <c r="D14">
         <v>50</v>
@@ -2109,13 +2122,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -2123,13 +2136,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16">
         <v>8415</v>
@@ -2137,13 +2150,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D17">
         <v>7392</v>
@@ -2151,13 +2164,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D18">
         <v>10000</v>
@@ -2165,13 +2178,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D19">
         <v>100</v>
@@ -2179,13 +2192,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20">
         <v>16000</v>
@@ -2193,13 +2206,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D21">
         <v>19000</v>
@@ -2207,13 +2220,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22">
         <v>250</v>
@@ -2221,13 +2234,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D23">
         <v>250</v>
@@ -2235,13 +2248,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24">
         <v>250</v>
@@ -2249,13 +2262,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25">
         <v>50</v>
@@ -2263,13 +2276,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26">
         <v>50</v>
@@ -2277,13 +2290,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D27">
         <v>10</v>
@@ -2291,13 +2304,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D28">
         <v>50</v>
@@ -2305,13 +2318,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -2319,13 +2332,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D30">
         <v>250</v>
@@ -2333,13 +2346,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2347,13 +2360,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D32">
         <v>500</v>
@@ -2361,13 +2374,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D33">
         <v>50</v>
@@ -2375,13 +2388,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D34">
         <v>400</v>
@@ -2389,13 +2402,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -2403,13 +2416,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D36">
         <v>25</v>
@@ -2417,13 +2430,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D37">
         <v>50</v>
@@ -2431,13 +2444,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2445,13 +2458,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D39">
         <v>500</v>
@@ -2459,13 +2472,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D40">
         <v>50</v>
@@ -2473,13 +2486,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D41">
         <v>10</v>
@@ -2487,24 +2500,24 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D43">
         <v>1000</v>
@@ -2512,13 +2525,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D44">
         <v>1000</v>
@@ -2526,13 +2539,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D45">
         <v>1000</v>
@@ -2540,13 +2553,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D46">
         <v>1000</v>
@@ -2554,13 +2567,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2568,13 +2581,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D48">
         <v>3000</v>
@@ -2582,13 +2595,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D49">
         <v>24</v>
@@ -2596,13 +2609,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D50">
         <v>1500</v>
@@ -2610,13 +2623,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D51">
         <v>500</v>
@@ -2624,13 +2637,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D52">
         <v>20</v>
@@ -2638,13 +2651,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D53">
         <v>16000</v>
@@ -2652,13 +2665,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D54">
         <v>800</v>
@@ -2666,13 +2679,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D55">
         <v>20</v>
@@ -2680,13 +2693,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D56">
         <v>50</v>
@@ -2694,13 +2707,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D57">
         <v>50</v>
@@ -2708,13 +2721,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D58">
         <v>10</v>
@@ -2722,13 +2735,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D59">
         <v>500</v>
@@ -2736,13 +2749,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D60">
         <v>500</v>
@@ -2750,13 +2763,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D61">
         <v>500</v>
@@ -2764,13 +2777,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D62">
         <v>10000</v>
@@ -2778,13 +2791,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D63">
         <v>6000</v>
@@ -2792,13 +2805,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -2806,13 +2819,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D65">
         <v>200</v>
@@ -2820,13 +2833,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D66">
         <v>12000</v>
@@ -2834,13 +2847,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C67" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D67">
         <v>200</v>
@@ -2848,13 +2861,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D68">
         <v>5</v>
@@ -2862,13 +2875,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D69">
         <v>25</v>
@@ -2876,13 +2889,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D70">
         <v>100</v>
@@ -2890,24 +2903,24 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C71" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D72">
         <v>60000</v>
@@ -2915,13 +2928,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C73" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D73">
         <v>500</v>
@@ -2929,13 +2942,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C74" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D74">
         <v>200</v>
@@ -2943,13 +2956,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C75" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D75">
         <v>200</v>
@@ -2957,13 +2970,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C76" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D76">
         <v>30</v>
@@ -2971,13 +2984,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B77" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C77" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D77">
         <v>20</v>
@@ -2985,13 +2998,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B78" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C78" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D78">
         <v>120</v>
@@ -2999,35 +3012,35 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B79" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C79" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B80" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C80" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B81" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C81" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D81">
         <v>50</v>
@@ -3035,13 +3048,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B82" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C82" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D82">
         <v>50</v>
@@ -3049,13 +3062,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B83" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C83" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D83">
         <v>12000</v>
@@ -3063,13 +3076,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B84" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C84" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D84">
         <v>500</v>
@@ -3077,24 +3090,24 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B85" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C85" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B86" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D86">
         <v>500</v>
@@ -3102,13 +3115,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B87" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C87" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D87">
         <v>3500</v>
@@ -3116,24 +3129,24 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C88" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B89" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C89" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D89">
         <v>250</v>
@@ -3141,13 +3154,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B90" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C90" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D90">
         <v>250</v>
@@ -3155,24 +3168,24 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B91" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C91" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B92" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C92" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D92">
         <v>9</v>
@@ -3180,13 +3193,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B93" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C93" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D93">
         <v>100</v>
@@ -3194,13 +3207,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B94" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C94" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D94">
         <v>200</v>
@@ -3208,13 +3221,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B95" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C95" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D95">
         <v>960</v>
@@ -3222,13 +3235,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B96" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C96" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D96">
         <v>200</v>
@@ -3236,13 +3249,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B97" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C97" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D97">
         <v>500</v>
@@ -3250,13 +3263,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B98" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C98" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -3264,13 +3277,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B99" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C99" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D99">
         <v>200</v>
@@ -3278,13 +3291,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B100" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C100" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D100">
         <v>200</v>
@@ -3292,13 +3305,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B101" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C101" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D101">
         <v>20</v>
@@ -3306,13 +3319,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B102" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C102" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D102">
         <v>200</v>
@@ -3320,13 +3333,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B103" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C103" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D103">
         <v>1500</v>
@@ -3334,13 +3347,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B104" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C104" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D104">
         <v>50</v>
@@ -3348,24 +3361,24 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B105" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C105" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B106" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C106" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D106">
         <v>13000</v>
@@ -3373,13 +3386,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B107" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C107" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D107">
         <v>200</v>
@@ -3387,13 +3400,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B108" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C108" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D108">
         <v>960</v>
@@ -3401,13 +3414,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B109" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C109" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D109">
         <v>250</v>
@@ -3415,13 +3428,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B110" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C110" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D110">
         <v>400</v>
@@ -3429,13 +3442,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B111" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C111" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D111">
         <v>50</v>
@@ -3443,13 +3456,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B112" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C112" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D112">
         <v>3000</v>
@@ -3457,24 +3470,24 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B113" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C113" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B114" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C114" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/dictionary/dictionary.xlsx
+++ b/dictionary/dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sopheap/Desktop/R/CMML 22.07.22/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E1DC62-59DE-C543-91AA-51BB1225B9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEAF021-C23F-C84E-99D9-23FB07D902C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1175,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/dictionary/dictionary.xlsx
+++ b/dictionary/dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sopheap/Desktop/R/CMML 22.07.22/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEAF021-C23F-C84E-99D9-23FB07D902C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02CBB7B-A301-CA46-AC70-D1EE5407B9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1175,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1500,10 +1500,10 @@
         <v>55</v>
       </c>
       <c r="D19" s="2">
-        <v>105.459999</v>
+        <v>105.4608685</v>
       </c>
       <c r="E19">
-        <v>11.993404999999999</v>
+        <v>11.993822</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
